--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:37+00:00</t>
+    <t>2022-10-31T22:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:57+00:00</t>
+    <t>2022-11-28T21:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:06:44+00:00</t>
+    <t>2022-11-28T21:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:07:57+00:00</t>
+    <t>2022-12-09T17:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T17:30:30+00:00</t>
+    <t>2023-09-15T20:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-datatable-valueset-1.xlsx
+++ b/ValueSet-datatable-valueset-1.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T20:59:49+00:00</t>
+    <t>2023-09-15T21:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
